--- a/resources/leetcode Frequencey.xlsx
+++ b/resources/leetcode Frequencey.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shifan.wu/Development/LC-Sol-Res/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59FE9A0-79C9-A748-9D0A-76E530ADC328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="9030" windowHeight="3450"/>
+    <workbookView xWindow="2500" yWindow="460" windowWidth="51200" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="编程小技巧" sheetId="2" r:id="rId2"/>
-    <sheet name="新题" sheetId="3" r:id="rId3"/>
+    <sheet name="新题" sheetId="3" r:id="rId2"/>
+    <sheet name="编程小技巧" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$134</definedName>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="469">
   <si>
     <t>Id</t>
   </si>
@@ -2531,23 +2537,26 @@
     <t>因为每次只能在词里改一个字母，我们先把start放到一个queue里（可以用linkedlist实现 然后另外一个linkedlist存Integer的distance）然后只要queue里还有词。我们把词取出来，从首字母for循环遍历到尾巴字母，里面再一个循环 每个字母(char temp='a';temp&lt;='z';temp++) 从A遍历到Z 然后再转回string看看字典里有没有，字典里面有再放入word的那个的queue 以此循环 直到==end 或者wordqueue空了返回0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>To Do</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2578,7 +2587,7 @@
       <b/>
       <sz val="13.5"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2690,31 +2699,39 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2724,31 +2741,43 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>3076575</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="组合 6"/>
+        <xdr:cNvPr id="7" name="组合 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4972050" y="138483975"/>
-          <a:ext cx="14516100" cy="3076575"/>
+          <a:off x="4965700" y="137126133"/>
+          <a:ext cx="14517158" cy="1628775"/>
           <a:chOff x="4972050" y="86448900"/>
           <a:chExt cx="11877675" cy="3076575"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="5" name="组合 4"/>
+          <xdr:cNvPr id="5" name="组合 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2761,7 +2790,13 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="2049" name="Picture 1" descr="C:\Users\Cats\AppData\Roaming\Tencent\Users\88929088\QQ\WinTemp\RichOle\KZ@S`TV~9CFW3B1684(]MHT.jpg"/>
+            <xdr:cNvPr id="2049" name="Picture 1" descr="C:\Users\Cats\AppData\Roaming\Tencent\Users\88929088\QQ\WinTemp\RichOle\KZ@S`TV~9CFW3B1684(]MHT.jpg">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
             </xdr:cNvPicPr>
@@ -2786,7 +2821,13 @@
         </xdr:pic>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="2051" name="Picture 3"/>
+            <xdr:cNvPr id="2051" name="Picture 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
             </xdr:cNvPicPr>
@@ -2819,7 +2860,13 @@
       </xdr:grpSp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="2052" name="Picture 4"/>
+          <xdr:cNvPr id="2052" name="Picture 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004080000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -2856,18 +2903,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1981200</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>1114964</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 1" descr="C:\Users\Cats\AppData\Roaming\Tencent\Users\88929088\QQ\WinTemp\RichOle\U14X}YB06_~8PG)(F6]E)@7.jpg"/>
+        <xdr:cNvPr id="8" name="Picture 1" descr="C:\Users\Cats\AppData\Roaming\Tencent\Users\88929088\QQ\WinTemp\RichOle\U14X}YB06_~8PG)(F6]E)@7.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2896,18 +2949,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>5019674</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>434408</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>1120208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2943,7 +3002,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2985,7 +3044,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3017,9 +3076,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3051,6 +3128,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3226,27 +3321,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="8"/>
-    <col min="3" max="3" width="8.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="8" customWidth="1"/>
-    <col min="5" max="6" width="14.375" style="8"/>
-    <col min="7" max="7" width="77.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="41" style="8" customWidth="1"/>
-    <col min="9" max="9" width="70.125" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="14.375" style="8"/>
+    <col min="1" max="1" width="5.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="16"/>
+    <col min="3" max="3" width="8.1640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="16" customWidth="1"/>
+    <col min="5" max="6" width="14.33203125" style="16"/>
+    <col min="7" max="7" width="77.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="41" style="16" customWidth="1"/>
+    <col min="9" max="9" width="70.1640625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="14.33203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:41" s="8" customFormat="1" ht="36">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3265,105 +3360,109 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="33">
+      <c r="G1" s="7"/>
+      <c r="I1" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="36">
       <c r="A2" s="7">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7">
-        <v>2</v>
-      </c>
       <c r="D2" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="49.5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="54">
       <c r="A3" s="7">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C3" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="36">
       <c r="A4" s="7">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>13</v>
+        <v>417</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="33">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="36">
       <c r="A5" s="7">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>132</v>
+        <v>373</v>
       </c>
       <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
-        <v>5</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="33">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="36">
       <c r="A6" s="7">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -3372,185 +3471,221 @@
         <v>5</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="66">
-      <c r="A7" s="7">
-        <v>28</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="72">
+      <c r="A7" s="15">
+        <v>62</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2</v>
+      </c>
+      <c r="D7" s="15">
+        <v>3</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="66">
+        <v>208</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+    </row>
+    <row r="8" spans="1:41" ht="72">
       <c r="A8" s="7">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>5</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="115.5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="126">
       <c r="A9" s="7">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>67</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="33">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="36">
       <c r="A10" s="7">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="132">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="144">
       <c r="A11" s="7">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>465</v>
+        <v>326</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="115.5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="126">
       <c r="A12" s="7">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>143</v>
+        <v>340</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>5</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="82.5">
+        <v>339</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="108">
       <c r="A13" s="7">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="G13" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="66">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="72">
       <c r="A14" s="7">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
         <v>5</v>
@@ -3559,18 +3694,18 @@
         <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="108">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="128">
       <c r="A15" s="7">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="C15" s="7">
         <v>3</v>
@@ -3579,67 +3714,68 @@
         <v>5</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="49.5">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="54">
       <c r="A16" s="7">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="82.5">
+        <v>166</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="90">
       <c r="A17" s="7">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="66">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="72">
       <c r="A18" s="7">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="C18" s="7">
         <v>3</v>
@@ -3648,136 +3784,151 @@
         <v>4</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="66">
+        <v>27</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="72">
       <c r="A19" s="7">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="C19" s="7">
         <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>4</v>
-      </c>
-      <c r="E19" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="99">
+        <v>248</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="108">
       <c r="A20" s="7">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="C20" s="7">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="90">
+      <c r="A21" s="7">
+        <v>63</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="126">
+      <c r="A22" s="7">
+        <v>64</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="72">
+      <c r="A23" s="7">
+        <v>74</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="7">
+        <v>3</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="54">
+      <c r="A24" s="7">
+        <v>11</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
         <v>2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>4</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="82.5">
-      <c r="A21" s="7">
-        <v>22</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3</v>
-      </c>
-      <c r="D21" s="7">
-        <v>4</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="99">
-      <c r="A22" s="7">
-        <v>23</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="7">
-        <v>3</v>
-      </c>
-      <c r="D22" s="7">
-        <v>4</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="66">
-      <c r="A23" s="7">
-        <v>24</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2</v>
-      </c>
-      <c r="D23" s="7">
-        <v>4</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="49.5">
-      <c r="A24" s="7">
-        <v>27</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7">
-        <v>4</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>14</v>
@@ -3786,271 +3937,276 @@
         <v>13</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="214.5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="252">
       <c r="A25" s="7">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="115.5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="144">
       <c r="A26" s="7">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>60</v>
+        <v>410</v>
       </c>
       <c r="C26" s="7">
         <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>411</v>
+      </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="132">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="144">
       <c r="A27" s="7">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="C27" s="7">
+        <v>3</v>
+      </c>
+      <c r="D27" s="7">
         <v>2</v>
       </c>
-      <c r="D27" s="7">
-        <v>4</v>
-      </c>
       <c r="E27" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="49.5">
+        <v>306</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="54">
       <c r="A28" s="7">
+        <v>59</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="C28" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="7">
-        <v>4</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="82.5">
+        <v>406</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="90">
       <c r="A29" s="7">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>174</v>
+        <v>401</v>
       </c>
       <c r="C29" s="7">
         <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>4</v>
-      </c>
-      <c r="E29" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F29" s="7" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="115.5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="144">
       <c r="A30" s="7">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="C30" s="7">
         <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="49.5">
+        <v>276</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="54">
       <c r="A31" s="7">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="C31" s="7">
         <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="99">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="144">
       <c r="A32" s="7">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C32" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="7">
+        <v>3</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="126">
+      <c r="A33" s="7">
+        <v>34</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="7">
         <v>4</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="99">
-      <c r="A33" s="7">
-        <v>102</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3</v>
-      </c>
       <c r="D33" s="7">
+        <v>3</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="90">
+      <c r="A34" s="7">
+        <v>51</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="7">
         <v>4</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="66">
-      <c r="A34" s="7">
-        <v>129</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2</v>
-      </c>
       <c r="D34" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="82.5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="108">
       <c r="A35" s="7">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="C35" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" s="7">
+        <v>3</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="90">
+      <c r="A36" s="7">
+        <v>128</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="7">
         <v>4</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="66">
-      <c r="A36" s="7">
-        <v>4</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C36" s="7">
-        <v>5</v>
       </c>
       <c r="D36" s="7">
         <v>3</v>
@@ -4058,283 +4214,277 @@
       <c r="E36" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>190</v>
+      <c r="F36" s="7" t="s">
+        <v>414</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="66">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="72">
       <c r="A37" s="7">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>192</v>
+        <v>437</v>
       </c>
       <c r="C37" s="7">
+        <v>4</v>
+      </c>
+      <c r="D37" s="7">
+        <v>3</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="234">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="7">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7">
         <v>2</v>
       </c>
-      <c r="D37" s="7">
-        <v>3</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="214.5">
-      <c r="A38" s="7">
-        <v>10</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" s="7">
-        <v>5</v>
-      </c>
-      <c r="D38" s="7">
-        <v>3</v>
-      </c>
       <c r="E38" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="66">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="90">
       <c r="A39" s="7">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>218</v>
+        <v>50</v>
       </c>
       <c r="C39" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="66">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="72">
       <c r="A40" s="7">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="C40" s="7">
+        <v>4</v>
+      </c>
+      <c r="D40" s="7">
         <v>2</v>
       </c>
-      <c r="D40" s="7">
-        <v>3</v>
-      </c>
       <c r="E40" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="49.5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="54">
       <c r="A41" s="7">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>36</v>
+        <v>381</v>
       </c>
       <c r="C41" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D41" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="66">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="90">
       <c r="A42" s="7">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C42" s="7">
         <v>4</v>
       </c>
       <c r="D42" s="7">
-        <v>3</v>
-      </c>
-      <c r="E42" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F42" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="99">
+        <v>249</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="126">
       <c r="A43" s="7">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c r="C43" s="7">
         <v>4</v>
       </c>
       <c r="D43" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="99">
+      <c r="F43" s="7"/>
+      <c r="G43" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="108">
       <c r="A44" s="7">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>43</v>
+        <v>408</v>
       </c>
       <c r="C44" s="7">
         <v>4</v>
       </c>
       <c r="D44" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="198">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="288">
       <c r="A45" s="7">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C45" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="198">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="216">
       <c r="A46" s="7">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C46" s="7">
         <v>4</v>
       </c>
       <c r="D46" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="33">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="36">
       <c r="A47" s="7">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C47" s="7">
+        <v>4</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="108">
+      <c r="A48" s="7">
+        <v>4</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="7">
         <v>5</v>
-      </c>
-      <c r="D47" s="7">
-        <v>3</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="82.5">
-      <c r="A48" s="7">
-        <v>51</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="7">
-        <v>4</v>
       </c>
       <c r="D48" s="7">
         <v>3</v>
@@ -4342,242 +4492,192 @@
       <c r="E48" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>27</v>
+      <c r="F48" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:41">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18">
       <c r="A49" s="7">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C49" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="50" spans="1:41" ht="82.5">
+        <v>450</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="90">
       <c r="A50" s="7">
-        <v>53</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>64</v>
+        <v>84</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="C50" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="51" spans="1:41" ht="49.5">
-      <c r="A51" s="18">
-        <v>62</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="18">
+        <v>253</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="54">
+      <c r="A51" s="7">
+        <v>85</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="7">
+        <v>5</v>
+      </c>
+      <c r="D51" s="7">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="180">
+      <c r="A52" s="7">
+        <v>56</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="7">
+        <v>4</v>
+      </c>
+      <c r="D52" s="7">
+        <v>5</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="90">
+      <c r="A53" s="7">
+        <v>57</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="7">
+        <v>4</v>
+      </c>
+      <c r="D53" s="7">
+        <v>5</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="90">
+      <c r="A54" s="7">
+        <v>1</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="7">
         <v>2</v>
       </c>
-      <c r="D51" s="18">
-        <v>3</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="18"/>
-      <c r="AA51" s="18"/>
-      <c r="AB51" s="18"/>
-      <c r="AC51" s="18"/>
-      <c r="AD51" s="18"/>
-      <c r="AE51" s="18"/>
-      <c r="AF51" s="18"/>
-      <c r="AG51" s="18"/>
-      <c r="AH51" s="18"/>
-      <c r="AI51" s="18"/>
-      <c r="AJ51" s="18"/>
-      <c r="AK51" s="18"/>
-      <c r="AL51" s="18"/>
-      <c r="AM51" s="18"/>
-      <c r="AN51" s="18"/>
-      <c r="AO51" s="18"/>
-    </row>
-    <row r="52" spans="1:41" ht="132">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="18"/>
-      <c r="W52" s="18"/>
-      <c r="X52" s="18"/>
-      <c r="Y52" s="18"/>
-      <c r="Z52" s="18"/>
-      <c r="AA52" s="18"/>
-      <c r="AB52" s="18"/>
-      <c r="AC52" s="18"/>
-      <c r="AD52" s="18"/>
-      <c r="AE52" s="18"/>
-      <c r="AF52" s="18"/>
-      <c r="AG52" s="18"/>
-      <c r="AH52" s="18"/>
-      <c r="AI52" s="18"/>
-      <c r="AJ52" s="18"/>
-      <c r="AK52" s="18"/>
-      <c r="AL52" s="18"/>
-      <c r="AM52" s="18"/>
-      <c r="AN52" s="18"/>
-      <c r="AO52" s="18"/>
-    </row>
-    <row r="53" spans="1:41" ht="66">
-      <c r="A53" s="7">
-        <v>63</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="7">
-        <v>3</v>
-      </c>
-      <c r="D53" s="7">
-        <v>3</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="54" spans="1:41" ht="82.5">
-      <c r="A54" s="7">
-        <v>64</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="7">
-        <v>3</v>
-      </c>
       <c r="D54" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:41" ht="99">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="108">
       <c r="A55" s="7">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C55" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" s="7">
         <v>3</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>271</v>
+        <v>27</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>329</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="56" spans="1:41" ht="181.5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="198">
       <c r="A56" s="7">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="C56" s="7">
         <v>3</v>
@@ -4586,50 +4686,50 @@
         <v>3</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>457</v>
+        <v>328</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="57" spans="1:41" ht="49.5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="54">
       <c r="A57" s="7">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="C57" s="7">
+        <v>3</v>
+      </c>
+      <c r="D57" s="7">
+        <v>5</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="108">
+      <c r="A58" s="7">
+        <v>83</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="7">
         <v>1</v>
-      </c>
-      <c r="D57" s="7">
-        <v>3</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="58" spans="1:41" ht="99">
-      <c r="A58" s="7">
-        <v>82</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="7">
-        <v>3</v>
       </c>
       <c r="D58" s="7">
         <v>3</v>
@@ -4637,211 +4737,206 @@
       <c r="E58" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="F58" s="7"/>
       <c r="G58" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="59" spans="1:41" ht="82.5">
+        <v>215</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="90">
       <c r="A59" s="7">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="C59" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="7"/>
+      <c r="F59" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="G59" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="60" spans="1:41" ht="148.5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="198">
       <c r="A60" s="7">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>274</v>
+        <v>33</v>
       </c>
       <c r="C60" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="7"/>
+      <c r="G60" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="180">
+      <c r="A61" s="7">
+        <v>19</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="7">
+        <v>2</v>
+      </c>
+      <c r="D61" s="7">
+        <v>3</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G61" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="54">
+      <c r="A62" s="7">
+        <v>2</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="7">
+        <v>3</v>
+      </c>
+      <c r="D62" s="7">
+        <v>4</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="144">
+      <c r="A63" s="7">
+        <v>82</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="7">
+        <v>3</v>
+      </c>
+      <c r="D63" s="7">
+        <v>3</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="234">
+      <c r="A64" s="7">
+        <v>86</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C64" s="7">
+        <v>3</v>
+      </c>
+      <c r="D64" s="7">
+        <v>3</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H64" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="I64" s="7" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="61" spans="1:41" ht="148.5">
-      <c r="A61" s="7">
-        <v>93</v>
-      </c>
-      <c r="B61" s="7" t="s">
+    <row r="65" spans="1:8" ht="234">
+      <c r="A65" s="7">
+        <v>61</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C65" s="7">
+        <v>3</v>
+      </c>
+      <c r="D65" s="7">
+        <v>2</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="108">
+      <c r="A66" s="7">
         <v>92</v>
       </c>
-      <c r="C61" s="7">
-        <v>3</v>
-      </c>
-      <c r="D61" s="7">
-        <v>3</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="62" spans="1:41" ht="49.5">
-      <c r="A62" s="7">
-        <v>94</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C62" s="7">
-        <v>4</v>
-      </c>
-      <c r="D62" s="7">
-        <v>3</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="63" spans="1:41" ht="132">
-      <c r="A63" s="7">
-        <v>103</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="7">
-        <v>4</v>
-      </c>
-      <c r="D63" s="7">
-        <v>3</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="64" spans="1:41" ht="214.5">
-      <c r="A64" s="7">
-        <v>105</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" s="7">
-        <v>3</v>
-      </c>
-      <c r="D64" s="7">
-        <v>3</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="214.5">
-      <c r="A65" s="7">
-        <v>106</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65" s="7">
-        <v>3</v>
-      </c>
-      <c r="D65" s="7">
-        <v>3</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="99">
-      <c r="A66" s="7">
-        <v>108</v>
-      </c>
       <c r="B66" s="7" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C66" s="7">
+        <v>3</v>
+      </c>
+      <c r="D66" s="7">
         <v>2</v>
       </c>
-      <c r="D66" s="7">
-        <v>3</v>
-      </c>
       <c r="E66" s="7" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="132">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="162">
       <c r="A67" s="7">
         <v>109</v>
       </c>
@@ -4864,558 +4959,567 @@
         <v>331</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="49.5">
+    <row r="68" spans="1:8" ht="54">
       <c r="A68" s="7">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C68" s="7">
+        <v>4</v>
+      </c>
+      <c r="D68" s="7">
+        <v>2</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="180">
+      <c r="A69" s="7">
+        <v>23</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="7">
+        <v>3</v>
+      </c>
+      <c r="D69" s="7">
+        <v>4</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="126">
+      <c r="A70" s="7">
+        <v>103</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="7">
+        <v>4</v>
+      </c>
+      <c r="D70" s="7">
+        <v>3</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="126">
+      <c r="A71" s="7">
+        <v>58</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="7">
         <v>1</v>
       </c>
-      <c r="D68" s="7">
-        <v>3</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="132">
-      <c r="A69" s="7">
-        <v>114</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C69" s="7">
-        <v>3</v>
-      </c>
-      <c r="D69" s="7">
-        <v>3</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="115.5">
-      <c r="A70" s="7">
-        <v>116</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C70" s="7">
-        <v>3</v>
-      </c>
-      <c r="D70" s="7">
-        <v>3</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="99">
-      <c r="A71" s="7">
-        <v>128</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" s="7">
-        <v>4</v>
-      </c>
       <c r="D71" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="181.5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="216">
       <c r="A72" s="7">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>437</v>
+        <v>20</v>
       </c>
       <c r="C72" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="330">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="377">
       <c r="A73" s="7">
+        <v>20</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="C73" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="82.5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="90">
       <c r="A74" s="7">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="C74" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" s="7">
+        <v>5</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="54">
+      <c r="A75" s="7">
+        <v>125</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="7">
         <v>2</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="49.5">
-      <c r="A75" s="7">
+      <c r="D75" s="7">
         <v>5</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="7">
-        <v>4</v>
-      </c>
-      <c r="D75" s="7">
-        <v>2</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:8" ht="82.5">
+      <c r="F75" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="90">
       <c r="A76" s="7">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C76" s="7">
         <v>2</v>
       </c>
       <c r="D76" s="7">
-        <v>2</v>
-      </c>
-      <c r="E76" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="F76" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>389</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="111.75" customHeight="1">
       <c r="A77" s="7">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C77" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" s="7">
         <v>2</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="99">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="108">
       <c r="A78" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C78" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="82.5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="108">
       <c r="A79" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="C79" s="7">
+        <v>3</v>
+      </c>
+      <c r="D79" s="7">
         <v>4</v>
       </c>
-      <c r="D79" s="7">
-        <v>2</v>
-      </c>
       <c r="E79" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="148.5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="162">
       <c r="A80" s="7">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>410</v>
+        <v>179</v>
       </c>
       <c r="C80" s="7">
         <v>3</v>
       </c>
       <c r="D80" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>411</v>
+        <v>22</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="82.5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="90">
       <c r="A81" s="7">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="C81" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>315</v>
+        <v>27</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="66">
+        <v>188</v>
+      </c>
+      <c r="H81" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="72">
       <c r="A82" s="7">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="C82" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="G82" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="18">
       <c r="A83" s="7">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C83" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="231">
+      <c r="G83" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="252">
       <c r="A84" s="7">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C84" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="7"/>
+      <c r="G84" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H84" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="90">
+      <c r="A85" s="7">
+        <v>30</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="7">
+        <v>3</v>
+      </c>
+      <c r="D85" s="7">
+        <v>1</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G84" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="82.5">
-      <c r="A85" s="7">
-        <v>40</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C85" s="7">
-        <v>4</v>
-      </c>
-      <c r="D85" s="7">
-        <v>2</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="G85" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="148.5">
+        <v>454</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="195">
       <c r="A86" s="7">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C86" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="H86" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="I86" s="15" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="115.5">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="126">
       <c r="A87" s="7">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="C87" s="7">
         <v>4</v>
       </c>
       <c r="D87" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="165">
+        <v>137</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="180">
       <c r="A88" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>381</v>
+        <v>55</v>
       </c>
       <c r="C88" s="7">
         <v>4</v>
       </c>
       <c r="D88" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>379</v>
+        <v>13</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="99">
+        <v>394</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="108">
       <c r="A89" s="7">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C89" s="7">
         <v>4</v>
       </c>
       <c r="D89" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>249</v>
+        <v>42</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="156" customHeight="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="156" customHeight="1">
       <c r="A90" s="7">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="C90" s="7">
         <v>4</v>
       </c>
       <c r="D90" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="7"/>
-      <c r="G90" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="181.5">
+        <v>17</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="198">
       <c r="A91" s="7">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>408</v>
+        <v>16</v>
       </c>
       <c r="C91" s="7">
         <v>4</v>
@@ -5424,159 +5528,152 @@
         <v>2</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F91" s="7"/>
-      <c r="G91" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="49.5">
+    </row>
+    <row r="92" spans="1:8" ht="54">
       <c r="A92" s="7">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C92" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" s="7">
         <v>2</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="270">
+        <v>17</v>
+      </c>
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" spans="1:8" ht="271">
       <c r="A93" s="7">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C93" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" s="7">
         <v>2</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>349</v>
+      </c>
       <c r="G93" s="7" t="s">
-        <v>406</v>
+        <v>351</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="94.5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="128">
       <c r="A94" s="7">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>355</v>
+        <v>116</v>
       </c>
       <c r="C94" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" s="7">
         <v>2</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="36">
       <c r="A95" s="7">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>373</v>
+        <v>443</v>
       </c>
       <c r="C95" s="7">
+        <v>4</v>
+      </c>
+      <c r="D95" s="7">
         <v>1</v>
       </c>
-      <c r="D95" s="7">
-        <v>2</v>
-      </c>
       <c r="E95" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>19</v>
+        <v>444</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="36">
       <c r="A96" s="7">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="C96" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F96" s="7"/>
-    </row>
-    <row r="97" spans="1:9" ht="66">
+      <c r="F96" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="72">
       <c r="A97" s="7">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C97" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="165">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="234">
       <c r="A98" s="7">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C98" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" s="7">
         <v>2</v>
@@ -5585,195 +5682,195 @@
         <v>17</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="66">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="72">
       <c r="A99" s="7">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C99" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" s="7">
         <v>2</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="115.5">
+        <v>391</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="126">
       <c r="A100" s="7">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="C100" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F100" s="7"/>
       <c r="G100" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="18">
       <c r="A101" s="7">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="C101" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" s="7">
         <v>2</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="214.5">
+        <v>13</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="234">
       <c r="A102" s="7">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C102" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D102" s="7">
-        <v>2</v>
-      </c>
-      <c r="E102" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="F102" s="7" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>421</v>
+        <v>332</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="33">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="54">
       <c r="A103" s="7">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>90</v>
+        <v>314</v>
       </c>
       <c r="C103" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D103" s="7">
         <v>2</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="115.5">
+        <v>322</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="126">
       <c r="A104" s="7">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C104" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D104" s="7">
         <v>2</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="132">
+        <v>227</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="162">
       <c r="A105" s="7">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C105" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D105" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="I105" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="66">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="72">
       <c r="A106" s="7">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="C106" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D106" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>95</v>
@@ -5782,50 +5879,47 @@
         <v>27</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="82.5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="90">
       <c r="A107" s="7">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="C107" s="7">
         <v>1</v>
       </c>
       <c r="D107" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>321</v>
+        <v>27</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="66">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="90">
       <c r="A108" s="7">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C108" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>95</v>
@@ -5834,24 +5928,21 @@
         <v>27</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="247.5">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="288">
       <c r="A109" s="7">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C109" s="7">
         <v>2</v>
       </c>
       <c r="D109" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>95</v>
@@ -5860,132 +5951,139 @@
         <v>27</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="252" customHeight="1">
       <c r="A110" s="7">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C110" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D110" s="7">
         <v>2</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="66">
+        <v>27</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="72">
       <c r="A111" s="7">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>386</v>
+        <v>99</v>
       </c>
       <c r="C111" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D111" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="99">
+        <v>149</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="126">
       <c r="A112" s="7">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="C112" s="7">
+        <v>3</v>
+      </c>
+      <c r="D112" s="7">
         <v>4</v>
-      </c>
-      <c r="D112" s="7">
-        <v>2</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H112" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="198">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="216">
       <c r="A113" s="7">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="C113" s="7">
         <v>3</v>
       </c>
       <c r="D113" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F113" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="G113" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="H113" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="115.5">
+        <v>234</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="126">
       <c r="A114" s="7">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>25</v>
+        <v>334</v>
       </c>
       <c r="C114" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D114" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F114" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>338</v>
+      </c>
       <c r="G114" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="165">
+        <v>460</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="180">
       <c r="A115" s="7">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>401</v>
+        <v>97</v>
       </c>
       <c r="C115" s="7">
         <v>3</v>
@@ -5994,21 +6092,21 @@
         <v>1</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>13</v>
+        <v>319</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="198">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="216">
       <c r="A116" s="7">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>40</v>
+        <v>317</v>
       </c>
       <c r="C116" s="7">
         <v>3</v>
@@ -6017,793 +6115,787 @@
         <v>1</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="99">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="144">
       <c r="A117" s="7">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>443</v>
+        <v>100</v>
       </c>
       <c r="C117" s="7">
         <v>4</v>
       </c>
       <c r="D117" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>444</v>
+        <v>27</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="33">
+        <v>238</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="36">
       <c r="A118" s="7">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>68</v>
+        <v>386</v>
       </c>
       <c r="C118" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D118" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="33">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="36">
       <c r="A119" s="7">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="C119" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D119" s="7">
-        <v>1</v>
-      </c>
-      <c r="E119" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="F119" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="132">
+        <v>27</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H119" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="144">
       <c r="A120" s="7">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>76</v>
+        <v>385</v>
       </c>
       <c r="C120" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D120" s="7">
         <v>1</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F120" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="234">
+      <c r="A121" s="7">
+        <v>94</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C121" s="7">
+        <v>4</v>
+      </c>
+      <c r="D121" s="7">
+        <v>3</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="108">
+      <c r="A122" s="7">
+        <v>70</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C122" s="7">
+        <v>2</v>
+      </c>
+      <c r="D122" s="7">
+        <v>5</v>
+      </c>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="126">
+      <c r="A123" s="7">
+        <v>13</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="7">
+        <v>2</v>
+      </c>
+      <c r="D123" s="7">
+        <v>4</v>
+      </c>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="18">
+      <c r="A124" s="7">
+        <v>7</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C124" s="7">
+        <v>2</v>
+      </c>
+      <c r="D124" s="7">
+        <v>3</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="54">
+      <c r="A125" s="7">
+        <v>9</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="7">
+        <v>2</v>
+      </c>
+      <c r="D125" s="7">
+        <v>2</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="90">
+      <c r="A126" s="7">
+        <v>50</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C126" s="7">
+        <v>3</v>
+      </c>
+      <c r="D126" s="7">
+        <v>5</v>
+      </c>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="72">
+      <c r="A127" s="7">
+        <v>12</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C127" s="7">
+        <v>3</v>
+      </c>
+      <c r="D127" s="7">
+        <v>4</v>
+      </c>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="108">
+      <c r="A128" s="7">
+        <v>77</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C128" s="7">
+        <v>3</v>
+      </c>
+      <c r="D128" s="7">
+        <v>4</v>
+      </c>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="108">
+      <c r="A129" s="7">
+        <v>69</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C129" s="7">
+        <v>4</v>
+      </c>
+      <c r="D129" s="7">
+        <v>4</v>
+      </c>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="108">
+      <c r="A130" s="7">
         <v>29</v>
       </c>
-      <c r="G120" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="214.5">
-      <c r="A121" s="7">
-        <v>85</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C121" s="7">
+      <c r="B130" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C130" s="7">
+        <v>4</v>
+      </c>
+      <c r="D130" s="7">
+        <v>3</v>
+      </c>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="72">
+      <c r="A131" s="7">
+        <v>89</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C131" s="7">
+        <v>4</v>
+      </c>
+      <c r="D131" s="7">
+        <v>2</v>
+      </c>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="90">
+      <c r="A132" s="7">
+        <v>60</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C132" s="7">
         <v>5</v>
-      </c>
-      <c r="D121" s="7">
-        <v>1</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="99">
-      <c r="A122" s="7">
-        <v>95</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C122" s="7">
-        <v>4</v>
-      </c>
-      <c r="D122" s="7">
-        <v>1</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="115.5">
-      <c r="A123" s="7">
-        <v>96</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C123" s="7">
-        <v>3</v>
-      </c>
-      <c r="D123" s="7">
-        <v>1</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="7">
-        <v>100</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C124" s="7">
-        <v>1</v>
-      </c>
-      <c r="D124" s="7">
-        <v>1</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="33">
-      <c r="A125" s="7">
-        <v>104</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C125" s="7">
-        <v>1</v>
-      </c>
-      <c r="D125" s="7">
-        <v>1</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="82.5">
-      <c r="A126" s="7">
-        <v>107</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C126" s="7">
-        <v>3</v>
-      </c>
-      <c r="D126" s="7">
-        <v>1</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="66">
-      <c r="A127" s="7">
-        <v>111</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C127" s="7">
-        <v>1</v>
-      </c>
-      <c r="D127" s="7">
-        <v>1</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="99">
-      <c r="A128" s="7">
-        <v>118</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C128" s="7">
-        <v>2</v>
-      </c>
-      <c r="D128" s="7">
-        <v>1</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="99">
-      <c r="A129" s="7">
-        <v>119</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="C129" s="7">
-        <v>2</v>
-      </c>
-      <c r="D129" s="7">
-        <v>1</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H129" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="99">
-      <c r="A130" s="7">
-        <v>120</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C130" s="7">
-        <v>3</v>
-      </c>
-      <c r="D130" s="7">
-        <v>1</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="66">
-      <c r="A131" s="7">
-        <v>121</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C131" s="7">
-        <v>2</v>
-      </c>
-      <c r="D131" s="7">
-        <v>1</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="82.5">
-      <c r="A132" s="7">
-        <v>122</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C132" s="7">
-        <v>3</v>
       </c>
       <c r="D132" s="7">
         <v>1</v>
       </c>
-      <c r="E132" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="E132" s="7"/>
       <c r="F132" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="99">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="108">
       <c r="A133" s="7">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C133" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D133" s="7">
         <v>1</v>
       </c>
-      <c r="E133" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="7">
-        <v>126</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C134" s="7">
-        <v>5</v>
-      </c>
-      <c r="D134" s="7">
-        <v>1</v>
-      </c>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-    </row>
-    <row r="135" spans="1:8" ht="82.5">
-      <c r="A135" s="7">
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+    </row>
+    <row r="134" spans="1:8" ht="18">
+      <c r="A134" s="18"/>
+      <c r="B134" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D134" s="18"/>
+      <c r="G134" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="90">
+      <c r="A135" s="18"/>
+      <c r="B135" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D135" s="18"/>
+      <c r="G135" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="H135" s="18"/>
+    </row>
+    <row r="136" spans="1:8" ht="180">
+      <c r="A136" s="7">
         <v>118</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B136" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D135" s="7"/>
-      <c r="G135" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H135" s="7"/>
-    </row>
-    <row r="136" spans="1:8" ht="165">
-      <c r="A136" s="7">
-        <v>119</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>221</v>
       </c>
       <c r="D136" s="7"/>
       <c r="G136" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H136" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="49.5">
+        <v>222</v>
+      </c>
+      <c r="H136" s="7"/>
+    </row>
+    <row r="137" spans="1:8" ht="54">
       <c r="A137" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D137" s="7"/>
       <c r="G137" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H137" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="36">
+      <c r="A138" s="18"/>
+      <c r="B138" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D138" s="18"/>
+      <c r="G138" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H138" s="18"/>
+    </row>
+    <row r="139" spans="1:8" ht="160">
+      <c r="A139" s="18"/>
+      <c r="B139" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D139" s="18"/>
+      <c r="G139" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="96">
+      <c r="A140" s="18"/>
+      <c r="B140" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="54">
+      <c r="A141" s="18"/>
+      <c r="B141" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D141" s="18"/>
+      <c r="G141" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="32">
+      <c r="A142" s="7">
+        <v>121</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H142" s="7"/>
+    </row>
+    <row r="143" spans="1:8" ht="160">
+      <c r="A143" s="7">
+        <v>120</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D143" s="7"/>
+      <c r="G143" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="H137" s="7"/>
-    </row>
-    <row r="138" spans="1:8" ht="33">
-      <c r="A138" s="7">
-        <v>121</v>
-      </c>
-      <c r="B138" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H138" s="7"/>
-    </row>
-    <row r="139" spans="1:8" ht="135">
-      <c r="A139" s="17"/>
-      <c r="B139" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D139" s="17"/>
-      <c r="G139" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="H139" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="81">
-      <c r="A140" s="17"/>
-      <c r="B140" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D140" s="17"/>
-      <c r="G140" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="49.5">
-      <c r="A141" s="17"/>
-      <c r="B141" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="D141" s="17"/>
-      <c r="G141" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="H141" s="17"/>
-    </row>
-    <row r="142" spans="1:8" ht="27">
-      <c r="A142" s="17"/>
-      <c r="B142" s="16" t="s">
+      <c r="H143" s="7"/>
+    </row>
+    <row r="144" spans="1:8" ht="144">
+      <c r="A144" s="18"/>
+      <c r="B144" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D144" s="18"/>
+      <c r="G144" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="145" spans="1:41" ht="160">
+      <c r="A145" s="15"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="15"/>
+      <c r="N145" s="15"/>
+      <c r="O145" s="15"/>
+      <c r="P145" s="15"/>
+      <c r="Q145" s="15"/>
+      <c r="R145" s="15"/>
+      <c r="S145" s="15"/>
+      <c r="T145" s="15"/>
+      <c r="U145" s="15"/>
+      <c r="V145" s="15"/>
+      <c r="W145" s="15"/>
+      <c r="X145" s="15"/>
+      <c r="Y145" s="15"/>
+      <c r="Z145" s="15"/>
+      <c r="AA145" s="15"/>
+      <c r="AB145" s="15"/>
+      <c r="AC145" s="15"/>
+      <c r="AD145" s="15"/>
+      <c r="AE145" s="15"/>
+      <c r="AF145" s="15"/>
+      <c r="AG145" s="15"/>
+      <c r="AH145" s="15"/>
+      <c r="AI145" s="15"/>
+      <c r="AJ145" s="15"/>
+      <c r="AK145" s="15"/>
+      <c r="AL145" s="15"/>
+      <c r="AM145" s="15"/>
+      <c r="AN145" s="15"/>
+      <c r="AO145" s="15"/>
+    </row>
+    <row r="146" spans="1:41" ht="64">
+      <c r="A146" s="18"/>
+      <c r="B146" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
-      <c r="G142" s="9" t="s">
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
+      <c r="G146" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="H142" s="17" t="s">
+      <c r="H146" s="18" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="148.5">
-      <c r="A143" s="17"/>
-      <c r="B143" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="D143" s="17"/>
-      <c r="G143" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H143" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="135">
-      <c r="A144" s="17"/>
-      <c r="B144" s="16" t="s">
+    <row r="147" spans="1:41" ht="96">
+      <c r="A147" s="18"/>
+      <c r="B147" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
-      <c r="G144" s="9" t="s">
+      <c r="C147" s="18"/>
+      <c r="D147" s="18"/>
+      <c r="G147" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H144" s="9" t="s">
+      <c r="H147" s="9" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="135">
-      <c r="A145" s="17"/>
-      <c r="B145" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="H145" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="54">
-      <c r="A146" s="17"/>
-      <c r="B146" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D146" s="17"/>
-      <c r="G146" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="H146" s="17"/>
-    </row>
-    <row r="147" spans="1:8" ht="81">
-      <c r="A147" s="17"/>
-      <c r="B147" s="16" t="s">
+    <row r="148" spans="1:41" ht="80">
+      <c r="A148" s="18"/>
+      <c r="B148" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
-      <c r="G147" s="9" t="s">
+      <c r="C148" s="18"/>
+      <c r="D148" s="18"/>
+      <c r="G148" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="H147" s="17"/>
-    </row>
-    <row r="148" spans="1:8" ht="67.5">
-      <c r="A148" s="17"/>
-      <c r="B148" s="16" t="s">
+      <c r="H148" s="18"/>
+    </row>
+    <row r="149" spans="1:41" ht="48">
+      <c r="A149" s="18"/>
+      <c r="B149" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
-      <c r="G148" s="9" t="s">
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
+      <c r="G149" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="H148" s="17"/>
-    </row>
-    <row r="149" spans="1:8" ht="54">
-      <c r="A149" s="17"/>
-      <c r="B149" s="17" t="s">
+      <c r="H149" s="18"/>
+    </row>
+    <row r="150" spans="1:41" ht="80">
+      <c r="A150" s="18"/>
+      <c r="B150" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-      <c r="G149" s="9" t="s">
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
+      <c r="G150" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="H149" s="17"/>
-    </row>
-    <row r="150" spans="1:8" ht="67.5">
-      <c r="A150" s="17"/>
-      <c r="B150" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="D150" s="17"/>
-      <c r="G150" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="121.5">
-      <c r="A151" s="17"/>
-      <c r="B151" s="16" t="s">
+      <c r="H150" s="18"/>
+    </row>
+    <row r="151" spans="1:41" ht="144">
+      <c r="A151" s="18"/>
+      <c r="B151" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
       <c r="G151" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="H151" s="17"/>
-    </row>
-    <row r="152" spans="1:8" ht="99">
-      <c r="A152" s="17"/>
-      <c r="B152" s="17" t="s">
+      <c r="H151" s="18"/>
+    </row>
+    <row r="152" spans="1:41" ht="108">
+      <c r="A152" s="18"/>
+      <c r="B152" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="18"/>
       <c r="E152" s="9"/>
-      <c r="F152" s="17"/>
+      <c r="F152" s="18"/>
       <c r="G152" s="7" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="17"/>
-      <c r="B153" s="17"/>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
+    <row r="153" spans="1:41">
+      <c r="A153" s="18"/>
+      <c r="B153" s="18"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
       <c r="E153" s="9"/>
-      <c r="F153" s="17"/>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="17"/>
-      <c r="B154" s="17"/>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
+      <c r="F153" s="18"/>
+    </row>
+    <row r="154" spans="1:41">
+      <c r="A154" s="18"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18"/>
       <c r="E154" s="9"/>
-      <c r="F154" s="17"/>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="17"/>
-      <c r="B155" s="17"/>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
+      <c r="F154" s="18"/>
+    </row>
+    <row r="155" spans="1:41">
+      <c r="A155" s="18"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
       <c r="E155" s="9"/>
-      <c r="F155" s="17"/>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="17"/>
-      <c r="B156" s="17"/>
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
+      <c r="F155" s="18"/>
+    </row>
+    <row r="156" spans="1:41">
+      <c r="A156" s="18"/>
+      <c r="B156" s="18"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="18"/>
       <c r="E156" s="9"/>
-      <c r="F156" s="17"/>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="17"/>
-      <c r="B157" s="17"/>
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
+      <c r="F156" s="18"/>
+    </row>
+    <row r="157" spans="1:41">
+      <c r="A157" s="18"/>
+      <c r="B157" s="18"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="18"/>
       <c r="E157" s="9"/>
-      <c r="F157" s="17"/>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="17"/>
-      <c r="B158" s="17"/>
-      <c r="C158" s="17"/>
-      <c r="D158" s="17"/>
+      <c r="F157" s="18"/>
+    </row>
+    <row r="158" spans="1:41">
+      <c r="A158" s="18"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="18"/>
       <c r="E158" s="9"/>
-      <c r="F158" s="17"/>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="17"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
+      <c r="F158" s="18"/>
+    </row>
+    <row r="159" spans="1:41">
+      <c r="A159" s="18"/>
+      <c r="B159" s="18"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="18"/>
       <c r="E159" s="9"/>
-      <c r="F159" s="17"/>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="17"/>
-      <c r="B160" s="17"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
+      <c r="F159" s="18"/>
+    </row>
+    <row r="160" spans="1:41">
+      <c r="A160" s="18"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
       <c r="E160" s="9"/>
-      <c r="F160" s="17"/>
+      <c r="F160" s="18"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="17"/>
-      <c r="B161" s="17"/>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
+      <c r="A161" s="18"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="18"/>
       <c r="E161" s="9"/>
-      <c r="F161" s="17"/>
+      <c r="F161" s="18"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="17"/>
-      <c r="B162" s="17"/>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
+      <c r="A162" s="18"/>
+      <c r="B162" s="18"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
       <c r="E162" s="9"/>
-      <c r="F162" s="17"/>
+      <c r="F162" s="18"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F133">
-    <sortCondition descending="1" ref="D1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO162">
+    <sortCondition ref="E2:E162"/>
+    <sortCondition ref="C2:C162"/>
+    <sortCondition descending="1" ref="D2:D162"/>
   </sortState>
-  <mergeCells count="7">
-    <mergeCell ref="H51:AO52"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I86" r:id="rId1"/>
+    <hyperlink ref="I49" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
@@ -6812,16 +6904,284 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="96">
+      <c r="A1" s="5"/>
+      <c r="B1" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="54">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="90">
+      <c r="A3" s="1">
+        <v>118</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="180">
+      <c r="A4" s="1">
+        <v>119</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="80">
+      <c r="B5" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="160">
+      <c r="B6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="160">
+      <c r="B7" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="176">
+      <c r="B8" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="36">
+      <c r="A9" s="1">
+        <v>120</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="36">
+      <c r="A10" s="1">
+        <v>121</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="80">
+      <c r="B11" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="32">
+      <c r="B12" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="E12" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="144">
+      <c r="B13" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="96">
+      <c r="B14" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="96">
+      <c r="B15" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="64">
+      <c r="B16" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="E16" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="2:5" ht="144">
+      <c r="B17" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G17">
+    <sortCondition ref="C1:C17"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="136.625" customWidth="1"/>
+    <col min="1" max="1" width="136.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7020,256 +7380,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="42.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="82.5">
-      <c r="A1" s="1">
-        <v>118</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="165">
-      <c r="A2" s="1">
-        <v>119</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="33">
-      <c r="A3" s="1">
-        <v>120</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="33">
-      <c r="A4" s="1">
-        <v>121</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="135">
-      <c r="B5" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="81">
-      <c r="B6" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="49.5">
-      <c r="B7" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27">
-      <c r="B8" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="148.5">
-      <c r="B9" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="148.5">
-      <c r="B10" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="135">
-      <c r="B11" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="54">
-      <c r="B12" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="94.5">
-      <c r="B13" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="81">
-      <c r="B14" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="54">
-      <c r="B15" t="s">
-        <v>428</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="67.5">
-      <c r="B16" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="121.5">
-      <c r="B17" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>